--- a/docs/Cloud_TTPs_to_Attack_Mappings.xlsx
+++ b/docs/Cloud_TTPs_to_Attack_Mappings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitreengenuity.sharepoint.com/sites/CTIDCloudAnalytics21-29/Shared Documents/General/Working Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1501" documentId="13_ncr:1_{1E7F8584-3596-4C1E-A332-BFBC912287A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E399D3E-E5AD-4777-B58B-BFAA7733D3F3}"/>
+  <xr:revisionPtr revIDLastSave="1503" documentId="13_ncr:1_{1E7F8584-3596-4C1E-A332-BFBC912287A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A7AD506-6841-439A-945B-9C8EBCFC7761}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="1488" windowWidth="14040" windowHeight="11472" tabRatio="377" firstSheet="1" activeTab="1" xr2:uid="{098B6E04-3F4C-4495-85D2-4B80A3734AD9}"/>
+    <workbookView xWindow="105" yWindow="390" windowWidth="20385" windowHeight="10875" tabRatio="377" firstSheet="1" activeTab="1" xr2:uid="{098B6E04-3F4C-4495-85D2-4B80A3734AD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,2889 +402,2889 @@
   <commentList>
     <comment ref="L2" authorId="0" shapeId="0" xr:uid="{21D810C2-E8BB-467B-90AC-E38FA7737E80}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cloudtrail-aws-ami-made-public/</t>
       </text>
     </comment>
     <comment ref="A3" authorId="1" shapeId="0" xr:uid="{43CF9239-4D43-4741-B003-027F238F8F45}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AWSCloudTrail/AWS_SuspiciousCredentialTokenAccessOfValid_IAM_Roles.yaml</t>
       </text>
     </comment>
     <comment ref="G3" authorId="2" shapeId="0" xr:uid="{CE9C6CD5-8267-4912-BC4D-72DEFF6DCE66}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/aws-fsx-excessive-file-denied/</t>
       </text>
     </comment>
     <comment ref="I3" authorId="3" shapeId="0" xr:uid="{D0390239-D1CF-41A4-84E5-BED0F27231AB}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AWSS3/AWSBucketAPILogs-SuspiciousDataAccessToS3BucketsfromUnknownIP.yaml</t>
       </text>
     </comment>
     <comment ref="A4" authorId="4" shapeId="0" xr:uid="{937F30A8-1351-4E19-A911-77E852BF7821}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cloudtrail-aws-login-failures/</t>
       </text>
     </comment>
     <comment ref="C7" authorId="5" shapeId="0" xr:uid="{EDCD8B4A-45D8-488B-9DD4-500314F458B4}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AWSCloudTrail/AWS_IAM_PrivilegeEscalationbyAttachment.yaml</t>
       </text>
     </comment>
     <comment ref="E7" authorId="6" shapeId="0" xr:uid="{E8B4B2C4-691D-488F-B3E0-407262615CDF}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AWSCloudTrail/AWS_IAM_PolicyChange.yaml</t>
       </text>
     </comment>
     <comment ref="C8" authorId="7" shapeId="0" xr:uid="{52423710-C8DC-48FD-8C72-7B0E64CD101A}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AWSCloudTrail/AWS_PrivilegedRoleAttachedToInstance.yaml</t>
       </text>
     </comment>
     <comment ref="E8" authorId="8" shapeId="0" xr:uid="{C0346387-1B35-4FD5-9D25-03AD5DF24566}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AWSCloudTrail/AWS_SuspiciousCredentialTokenAccessOfValid_IAM_Roles.yaml</t>
       </text>
     </comment>
     <comment ref="J8" authorId="9" shapeId="0" xr:uid="{12DF842D-1CEA-425C-98E8-7E5579709F50}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AWSS3/AWSBucketAPILogs-S3BucketDataTransferTimeSeriesAnomaly.yaml</t>
       </text>
     </comment>
     <comment ref="D9" authorId="10" shapeId="0" xr:uid="{CC8A088E-C1F0-4225-B9F2-B3B60C6B9319}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AWSCloudTrail/AWS_IAM_PolicyChange.yaml</t>
       </text>
     </comment>
     <comment ref="E9" authorId="11" shapeId="0" xr:uid="{B59F01C1-7161-453A-B7A9-E2F53237EFFF}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AWSCloudTrail/AWS_Unused_UnsupportedCloudRegions.yaml</t>
       </text>
     </comment>
     <comment ref="D10" authorId="12" shapeId="0" xr:uid="{AFF222AC-D2F5-48A7-B527-82FA269C82F2}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AWSCloudTrail/AWS_IAM_PrivilegeEscalationbyAttachment.yaml</t>
       </text>
     </comment>
     <comment ref="E10" authorId="13" shapeId="0" xr:uid="{1E044AE4-AEE0-4FEC-A4C4-46412B369E41}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/aws-s3-lifecycle-expiration-policy-disabled/</t>
       </text>
     </comment>
     <comment ref="D11" authorId="14" shapeId="0" xr:uid="{0E21BBC4-603B-414A-86E2-3BAD07E5BB3A}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AWSCloudTrail/AWS_PrivilegedRoleAttachedToInstance.yaml</t>
       </text>
     </comment>
     <comment ref="E11" authorId="15" shapeId="0" xr:uid="{208601DF-AF9F-4A4D-821F-CFA7DD3BF586}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/aws-s3-lifecycle-expiration-below-90-days/</t>
       </text>
     </comment>
     <comment ref="D12" authorId="16" shapeId="0" xr:uid="{436AD9A6-2CE6-4CBA-9F7D-A6F8EC9BD44E}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cloudtrail-user-executed-command-on-ecs-container/</t>
       </text>
     </comment>
     <comment ref="E12" authorId="17" shapeId="0" xr:uid="{2593B877-8062-4058-AE85-8192B06A2D79}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/aws-s3-lifecycle-policy-deleted/</t>
       </text>
     </comment>
     <comment ref="D13" authorId="18" shapeId="0" xr:uid="{FE0E8710-3DF3-426F-A94A-865450EEBAEC}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cloudtrail-aws-anomalous-get-object-unique-bucket-60minbucket/</t>
       </text>
     </comment>
     <comment ref="E13" authorId="19" shapeId="0" xr:uid="{7DBDCDF3-F773-41A7-A415-1447F57A8A32}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/aws-s3-lifecycle-versioning-mfa-delete-disabled/</t>
       </text>
     </comment>
     <comment ref="E14" authorId="20" shapeId="0" xr:uid="{0932456E-851A-4696-AB88-B3C64B03705C}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cloudtrail-aws-cloudtrail-configuration-modified/</t>
       </text>
     </comment>
     <comment ref="E15" authorId="21" shapeId="0" xr:uid="{19DB8D7F-18B6-49DD-9E79-CB205E3C48EF}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cloudtrail-aws-cmks-modified/</t>
       </text>
     </comment>
     <comment ref="E16" authorId="22" shapeId="0" xr:uid="{8221BCEB-BD6B-4DCE-B7BD-BE8F1314F348}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cloudtrail-aws-config-disabled/</t>
       </text>
     </comment>
     <comment ref="G18" authorId="23" shapeId="0" xr:uid="{32488AB8-2C22-4855-BE9E-340868564972}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureActivity/Anomalous_Listing_Of_Storage_Keys.yaml</t>
       </text>
     </comment>
     <comment ref="H18" authorId="24" shapeId="0" xr:uid="{371588E8-5667-4CEC-BC39-90F18731DDE8}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureActivity/AnomalousAzureOperationModel.yaml</t>
       </text>
     </comment>
     <comment ref="I18" authorId="25" shapeId="0" xr:uid="{EF27C694-B8E8-49DE-9EDB-579ACC71C9E0}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureDevOpsAuditing/Project%20visibility%20changed%20to%20public.yaml</t>
       </text>
     </comment>
     <comment ref="J18" authorId="26" shapeId="0" xr:uid="{7B70997B-2D55-431C-8946-A542DDECA37B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureStorage/AzureStorageFileCreateAccessDelete.yaml</t>
       </text>
     </comment>
     <comment ref="L18" authorId="27" shapeId="0" xr:uid="{370930B2-7BD4-4170-B3EC-CC58025A90F0}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureActivity/PortOpenedForAzureResource.yaml</t>
       </text>
     </comment>
     <comment ref="M18" authorId="28" shapeId="0" xr:uid="{B3CCD5B8-CBC2-4C0C-BE23-B90221567920}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="N18" authorId="29" shapeId="0" xr:uid="{A09F0280-4671-429B-88AA-ECEB8A354138}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cis-azure-1.3.0-1.22/</t>
       </text>
     </comment>
     <comment ref="D19" authorId="30" shapeId="0" xr:uid="{3DC34914-67BD-43BC-9016-B3C05B9D8A79}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureActivity/Granting_Permissions_to_Account.yaml</t>
       </text>
     </comment>
     <comment ref="G19" authorId="31" shapeId="0" xr:uid="{0D6D234F-7756-4605-8DA2-F9C30FAEAA04}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="H19" authorId="32" shapeId="0" xr:uid="{1FCFD315-0CCF-4F63-BBCE-F72460217151}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureActivity/AzureRunCommandFromAzureIP.yaml</t>
       </text>
     </comment>
     <comment ref="I19" authorId="33" shapeId="0" xr:uid="{1DC9131E-F972-4249-B8D8-88F4A7617080}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/LAQueryLogs</t>
       </text>
     </comment>
     <comment ref="J19" authorId="34" shapeId="0" xr:uid="{ACAA4404-70DC-46A3-8296-C9EC49671D87}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureStorage/AzureStorageFileCreatedQuicklyDeleted.yaml</t>
       </text>
     </comment>
     <comment ref="L19" authorId="35" shapeId="0" xr:uid="{D9CEFE31-9D2C-4825-A1A1-41A56B6591C7}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="N19" authorId="36" shapeId="0" xr:uid="{77E1EB5B-D44D-4B3C-8E94-BA6C3C523F18}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cis-azure-1.3.0-9.10/</t>
       </text>
     </comment>
     <comment ref="B20" authorId="37" shapeId="0" xr:uid="{8B9E1C3C-3105-4CAF-A802-5C69FB0406A8}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureActivity/Azure-CloudShell-Usage.yaml</t>
       </text>
     </comment>
     <comment ref="D20" authorId="38" shapeId="0" xr:uid="{677672E9-5657-47D3-AFD7-1E9CECED9A71}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureDevOpsAuditing/ADOReleasePipelineCreated.yaml</t>
       </text>
     </comment>
     <comment ref="G20" authorId="39" shapeId="0" xr:uid="{F8331C09-7F16-4E64-97C2-52B64BB0FB3B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="H20" authorId="40" shapeId="0" xr:uid="{52ED9639-32ED-49EE-986F-D22A4E8CA8E6}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureStorage/AzureStorageFileOnEndpoint.yaml</t>
       </text>
     </comment>
     <comment ref="I20" authorId="41" shapeId="0" xr:uid="{EFB5ACC0-F0D1-4DB7-B40D-B6780A758308}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/LAQueryLogs</t>
       </text>
     </comment>
     <comment ref="J20" authorId="42" shapeId="0" xr:uid="{120E6569-5C0E-4B36-955B-B412CE568371}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/LAQueryLogs</t>
       </text>
     </comment>
     <comment ref="L20" authorId="43" shapeId="0" xr:uid="{43E332DD-B3A9-4DB3-AC75-A6D6D3303241}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="N20" authorId="44" shapeId="0" xr:uid="{8761B9AA-0BF8-4774-92EB-B6807E3636D2}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cis-azure-1.3.0-9.5/</t>
       </text>
     </comment>
     <comment ref="B21" authorId="45" shapeId="0" xr:uid="{8F4C0AE8-B6AC-4887-A00E-0A223A310C8D}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureActivity/Rare_Custom_Script_Extension.yaml</t>
       </text>
     </comment>
     <comment ref="D21" authorId="46" shapeId="0" xr:uid="{C8955E70-4779-4E28-BFFC-717F14D53D90}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="G21" authorId="47" shapeId="0" xr:uid="{AAFD9253-F35A-4107-84AD-8FF1F48B00FB}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityAlert</t>
       </text>
     </comment>
     <comment ref="H21" authorId="48" shapeId="0" xr:uid="{6833E4C3-93B3-4206-BBCC-2F6801245947}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureStorage/AzureStorageUploadFromVPS.yaml</t>
       </text>
     </comment>
     <comment ref="J21" authorId="49" shapeId="0" xr:uid="{A511DABD-7ED0-4206-8F1E-D8FE65660D5E}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/LAQueryLogs</t>
       </text>
     </comment>
     <comment ref="L21" authorId="50" shapeId="0" xr:uid="{CF246786-71D7-4E1D-86F9-0BF619878166}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="N21" authorId="51" shapeId="0" xr:uid="{396EEF38-8CB0-4892-8C92-6EE9ACD077C4}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cis-azure-1.3.0-9.4/</t>
       </text>
     </comment>
     <comment ref="B22" authorId="52" shapeId="0" xr:uid="{946B805C-A59C-4956-9EDF-C373E5171F78}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureDevOpsAuditing/ADOReleasePipelineCreated.yaml</t>
       </text>
     </comment>
     <comment ref="D22" authorId="53" shapeId="0" xr:uid="{84A6F213-8B30-4700-B919-9BECA23917AD}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="G22" authorId="54" shapeId="0" xr:uid="{4B41D9A3-12B7-4157-BFC4-BFB286815D24}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityAlert</t>
       </text>
     </comment>
     <comment ref="H22" authorId="55" shapeId="0" xr:uid="{E7DEFC87-0664-4AEF-8F1D-88DE64E24225}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="I22" authorId="56" shapeId="0" xr:uid="{930B952B-87F2-4DFA-80D4-E3DE858B1855}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/LAQueryLogs</t>
       </text>
     </comment>
     <comment ref="J22" authorId="57" shapeId="0" xr:uid="{BF5E4FE6-EB41-4C8A-96A8-061B7D7A8A34}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/LAQueryLogs</t>
       </text>
     </comment>
     <comment ref="L22" authorId="58" shapeId="0" xr:uid="{CD745861-CFC0-41C6-8FC1-96BA559C725B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="N22" authorId="59" shapeId="0" xr:uid="{1C605EC8-50B9-402E-9261-6D1B5D2E98CC}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cis-azure-1.3.0-9.3/</t>
       </text>
     </comment>
     <comment ref="B23" authorId="60" shapeId="0" xr:uid="{C42054A5-00A1-4F1F-B657-3C1E3600734A}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureDevOpsAuditing/AzDOPrPolicyBypassers.yaml</t>
       </text>
     </comment>
     <comment ref="C23" authorId="61" shapeId="0" xr:uid="{2CBB1F9F-05E4-4BF1-983E-0AE5A77F44EA}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureActivity/Granting_Permissions_to_Account.yaml</t>
       </text>
     </comment>
     <comment ref="D23" authorId="62" shapeId="0" xr:uid="{19C5EABA-482E-4075-9859-8A9CE839CA13}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="G23" authorId="63" shapeId="0" xr:uid="{DD1043E9-A6FA-4FB6-ACAA-86078B5F1AE9}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityAlert</t>
       </text>
     </comment>
     <comment ref="H23" authorId="64" shapeId="0" xr:uid="{3596EB7E-F598-4BB4-BDF1-26AA90747F70}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="I23" authorId="65" shapeId="0" xr:uid="{6EA52B3B-92E2-4D80-8F06-449F4E8E5A24}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/LAQueryLogs</t>
       </text>
     </comment>
     <comment ref="J23" authorId="66" shapeId="0" xr:uid="{9C444760-F945-4751-A4CA-127FA439CEF5}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/LAQueryLogs</t>
       </text>
     </comment>
     <comment ref="L23" authorId="67" shapeId="0" xr:uid="{2ACD5CF7-CA8C-4B35-A3F0-16D53A3BBC7E}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="N23" authorId="68" shapeId="0" xr:uid="{0DCF9C68-A856-42E4-A708-3B404978DD61}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cis-azure-1.3.0-9.2/</t>
       </text>
     </comment>
     <comment ref="A24" authorId="69" shapeId="0" xr:uid="{7BD65ADC-9C3E-4FC4-A33F-669337F6E35A}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureActivity/AzureAdministrationFromVPS.yaml</t>
       </text>
     </comment>
     <comment ref="B24" authorId="70" shapeId="0" xr:uid="{28CFD77C-6C1E-4C8F-922A-AA73F92A4925}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="C24" authorId="71" shapeId="0" xr:uid="{2F2D6681-DB7F-4B62-948B-0FB8D836FF02}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureDevOpsAuditing/AAD%20Conditional%20Access%20Disabled.yaml</t>
       </text>
     </comment>
     <comment ref="D24" authorId="72" shapeId="0" xr:uid="{9B9C080A-CECB-407A-A6B1-B101F9984C6E}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/OfficeActivity</t>
       </text>
     </comment>
     <comment ref="G24" authorId="73" shapeId="0" xr:uid="{048FED1E-6F31-4F41-B9EF-5DE6627D4314}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityAlert</t>
       </text>
     </comment>
     <comment ref="H24" authorId="74" shapeId="0" xr:uid="{0DE0A863-7307-40EF-9CA5-E0CA27275079}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="I24" authorId="75" shapeId="0" xr:uid="{B290BF36-1D82-4EB0-94FF-A26212503F7F}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/LAQueryLogs</t>
       </text>
     </comment>
     <comment ref="J24" authorId="76" shapeId="0" xr:uid="{C97C1809-EEA1-4882-A938-C51141C69ECC}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/LAQueryLogs</t>
       </text>
     </comment>
     <comment ref="L24" authorId="77" shapeId="0" xr:uid="{83DF8D23-2061-42F5-9020-2C758D4B9B91}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="N24" authorId="78" shapeId="0" xr:uid="{CF81865E-571C-497B-8E95-18DE2701DE30}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cis-azure-1.3.0-4.3.2/</t>
       </text>
     </comment>
     <comment ref="A25" authorId="79" shapeId="0" xr:uid="{A0D17D21-56BD-4A8F-BDC4-8E0BA287E840}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureDevOpsAuditing/ADOInternalUpstreamPacakgeFeedAdded.yaml</t>
       </text>
     </comment>
     <comment ref="B25" authorId="80" shapeId="0" xr:uid="{5CD5B04D-A36A-48BF-9186-F82761378FAF}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="C25" authorId="81" shapeId="0" xr:uid="{CEE235BA-512A-4D79-A2C8-1F01439B5363}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureDevOpsAuditing/ADOBuildDeletedAfterPipelineMod.yaml</t>
       </text>
     </comment>
     <comment ref="D25" authorId="82" shapeId="0" xr:uid="{5066CD2C-2643-48F5-BFD1-EDF0BEE2C867}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/OfficeActivity</t>
       </text>
     </comment>
     <comment ref="E25" authorId="83" shapeId="0" xr:uid="{F9CD834F-AF90-448C-ACA8-C0016FBDACC9}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureDevOpsAuditing/AAD%20Conditional%20Access%20Disabled.yaml</t>
       </text>
     </comment>
     <comment ref="G25" authorId="84" shapeId="0" xr:uid="{930B923E-F7A4-4F0A-8348-C06530BAC156}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityAlert</t>
       </text>
     </comment>
     <comment ref="H25" authorId="85" shapeId="0" xr:uid="{5299AB1D-68D0-41F6-B4BA-CACE3A05C977}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="I25" authorId="86" shapeId="0" xr:uid="{D5D22256-4B28-42C2-BFC4-89A061FB4C7A}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="J25" authorId="87" shapeId="0" xr:uid="{F84D2F6C-EEDB-4328-B4E2-2B2D3FE39297}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/LAQueryLogs</t>
       </text>
     </comment>
     <comment ref="L25" authorId="88" shapeId="0" xr:uid="{DD48E706-A81C-47DE-BA43-88F8432B2A67}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="N25" authorId="89" shapeId="0" xr:uid="{50FDD95D-27B2-43D2-B85D-E52CDFC10028}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cis-azure-1.3.0-4.3.6/</t>
       </text>
     </comment>
     <comment ref="A26" authorId="90" shapeId="0" xr:uid="{47CA008C-36B0-49C1-8751-D65974A06C2B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureDevOpsAuditing/ADONewPackageFeedCreated.yaml</t>
       </text>
     </comment>
     <comment ref="B26" authorId="91" shapeId="0" xr:uid="{67139CB2-EFED-45D4-BC8F-18D44C10F3F7}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="C26" authorId="92" shapeId="0" xr:uid="{EFD220C6-AF6B-4365-8586-A00A1F331D51}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureDevOpsAuditing/ADOReleasePipelineCreated.yaml</t>
       </text>
     </comment>
     <comment ref="D26" authorId="93" shapeId="0" xr:uid="{9C99F84C-E178-488C-BDD7-E1578648627B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityAlert</t>
       </text>
     </comment>
     <comment ref="E26" authorId="94" shapeId="0" xr:uid="{0AD9169A-8DB3-4F5C-930C-969A536970FF}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureDevOpsAuditing/ADOBuildCheckDeleted.yaml</t>
       </text>
     </comment>
     <comment ref="G26" authorId="95" shapeId="0" xr:uid="{BF9B027A-0A2F-4022-83DB-20E8802CA097}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="H26" authorId="96" shapeId="0" xr:uid="{3CAFB17F-4025-4D13-8031-372CED591D8B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityAlert</t>
       </text>
     </comment>
     <comment ref="I26" authorId="97" shapeId="0" xr:uid="{FF840983-A148-4623-A714-A681F63B1A30}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="J26" authorId="98" shapeId="0" xr:uid="{CF56E4D8-7780-4A31-B27F-C0B98BE7AD2B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/LAQueryLogs</t>
       </text>
     </comment>
     <comment ref="L26" authorId="99" shapeId="0" xr:uid="{CA310CF1-227D-49B9-BF97-1FAF9C0B4631}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="N26" authorId="100" shapeId="0" xr:uid="{670C7F64-7337-4F65-BB11-C20C8E3687C2}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cis-azure-1.3.0-4.3.3/</t>
       </text>
     </comment>
     <comment ref="A27" authorId="101" shapeId="0" xr:uid="{7C68FA8D-7651-4FAC-9E18-C7E70E3EF0D3}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureDiagnostics/CriticalPortsOpened.yaml</t>
       </text>
     </comment>
     <comment ref="B27" authorId="102" shapeId="0" xr:uid="{175A03D7-D807-4298-A8CF-058F40B3F282}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/OfficeActivity</t>
       </text>
     </comment>
     <comment ref="C27" authorId="103" shapeId="0" xr:uid="{0AF9E8BF-C400-4ACD-A362-8F397D296EEC}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureDevOpsAuditing/Addtional%20Org%20Admin%20Added.yaml</t>
       </text>
     </comment>
     <comment ref="D27" authorId="104" shapeId="0" xr:uid="{4522BEC6-2A5C-4CF2-86F4-53F5B5C3028F}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityAlert</t>
       </text>
     </comment>
     <comment ref="E27" authorId="105" shapeId="0" xr:uid="{1AC506B0-E84E-404C-B70B-578AA61B054C}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureDevOpsAuditing/ADONewAgentPoolCreated.yaml</t>
       </text>
     </comment>
     <comment ref="G27" authorId="106" shapeId="0" xr:uid="{DB0C0E43-5C26-47CF-950B-F1D274FCDF03}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="H27" authorId="107" shapeId="0" xr:uid="{3CB9A621-2876-4840-B255-A41C3FD8E043}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityAlert</t>
       </text>
     </comment>
     <comment ref="I27" authorId="108" shapeId="0" xr:uid="{54C1BC30-DCD6-4447-8832-718D1F55C88B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="J27" authorId="109" shapeId="0" xr:uid="{F3141931-5C1B-4E44-8347-B05B516B797B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="L27" authorId="110" shapeId="0" xr:uid="{4657FB7F-54C1-4AE8-BB2C-B7C7A38DFF44}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="N27" authorId="111" shapeId="0" xr:uid="{76AF5BD2-4265-4191-99E0-3875DCC7E911}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cis-azure-1.3.0-4.3.4/</t>
       </text>
     </comment>
     <comment ref="A28" authorId="112" shapeId="0" xr:uid="{3580EE10-5706-45CA-9B7D-69B7C9DA57CC}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureDiagnostics/WAF_log4j_vulnerability.yaml</t>
       </text>
     </comment>
     <comment ref="B28" authorId="113" shapeId="0" xr:uid="{5CD48460-0167-4FD9-A433-1648DB6B1DD9}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="C28" authorId="114" shapeId="0" xr:uid="{5C374E36-2F47-44A8-A2DE-A436010D221C}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureDevOpsAuditing/AzDODisplayNameSwapping.yaml</t>
       </text>
     </comment>
     <comment ref="D28" authorId="115" shapeId="0" xr:uid="{0BE1F844-9F90-47B5-94AB-D285A3E4390B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="E28" authorId="116" shapeId="0" xr:uid="{790A5BBE-8CFF-4E74-B4B2-4351131FB6D3}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureDevOpsAuditing/ADONewPATOperation.yaml</t>
       </text>
     </comment>
     <comment ref="F28" authorId="117" shapeId="0" xr:uid="{58248DC1-9D44-4B07-B88B-C473FF805BDF}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureActivity/AnomalousAzureOperationModel.yaml</t>
       </text>
     </comment>
     <comment ref="G28" authorId="118" shapeId="0" xr:uid="{04C3131B-FA05-4346-B2D1-4438BCEBE6F2}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="H28" authorId="119" shapeId="0" xr:uid="{80EF57BF-77A5-4E55-B76B-0343C5387A02}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityAlert</t>
       </text>
     </comment>
     <comment ref="I28" authorId="120" shapeId="0" xr:uid="{452D4A5F-B9EB-4050-8A07-EE3BF94A482D}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/OfficeActivity</t>
       </text>
     </comment>
     <comment ref="J28" authorId="121" shapeId="0" xr:uid="{E989B530-F877-47C4-BD34-59EDD9BAF918}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/OfficeActivity</t>
       </text>
     </comment>
     <comment ref="L28" authorId="122" shapeId="0" xr:uid="{E402C4EC-05C3-4A1F-A086-A651207EBC9E}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="N28" authorId="123" shapeId="0" xr:uid="{09644F1B-7E59-4B57-9558-F6951BF61428}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cis-azure-1.3.0-4.3.5/</t>
       </text>
     </comment>
     <comment ref="A29" authorId="124" shapeId="0" xr:uid="{2E89C213-3F45-4833-AF83-3123AF6FA2B4}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="B29" authorId="125" shapeId="0" xr:uid="{266455D7-704F-4EDA-8829-90ADCCC3D61F}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="C29" authorId="126" shapeId="0" xr:uid="{D55EA689-7602-46B4-B8E5-3CC1BE728F43}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureDevOpsAuditing/Guest%20users%20access%20enabled.yaml</t>
       </text>
     </comment>
     <comment ref="D29" authorId="127" shapeId="0" xr:uid="{C1B4B061-F207-4718-8EDE-2EF2B4D5421C}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="E29" authorId="128" shapeId="0" xr:uid="{0101745C-1C35-4CB5-B853-36F9FCE862A5}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureDevOpsAuditing/ADONewReleaseApprover.yaml</t>
       </text>
     </comment>
     <comment ref="F29" authorId="129" shapeId="0" xr:uid="{7B0C4866-68AE-4CF1-BC8E-D93D296117B9}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureActivity/AzureRunCommandFromAzureIP.yaml</t>
       </text>
     </comment>
     <comment ref="G29" authorId="130" shapeId="0" xr:uid="{E76B97A1-75DF-4C86-961F-616F05C316AA}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="H29" authorId="131" shapeId="0" xr:uid="{2CC2D8D9-1EFF-4C1D-81CA-44F03CA69080}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityAlert</t>
       </text>
     </comment>
     <comment ref="I29" authorId="132" shapeId="0" xr:uid="{63AEB68F-2088-45E4-BD2D-28C0F01DCCDE}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/OfficeActivity</t>
       </text>
     </comment>
     <comment ref="J29" authorId="133" shapeId="0" xr:uid="{90091B37-7F0D-424A-952E-426767AC5727}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/OfficeActivity</t>
       </text>
     </comment>
     <comment ref="L29" authorId="134" shapeId="0" xr:uid="{31A223B5-AF5E-4913-A3FC-9BB27DBCEF56}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/OfficeActivity</t>
       </text>
     </comment>
     <comment ref="N29" authorId="135" shapeId="0" xr:uid="{F08BA4DF-374C-4228-973E-B11A3367F2C1}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cis-azure-1.3.0-4.3.7/</t>
       </text>
     </comment>
     <comment ref="A30" authorId="136" shapeId="0" xr:uid="{512C0833-016A-4F88-B83E-6EC214E59C16}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="B30" authorId="137" shapeId="0" xr:uid="{14CACB3C-A4A2-474E-9B4B-3D408E2AB634}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="C30" authorId="138" shapeId="0" xr:uid="{338A50CC-76D9-423F-963C-2E39F483CB04}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureDevOpsAuditing/Public%20Projects%20enabled.yaml</t>
       </text>
     </comment>
     <comment ref="D30" authorId="139" shapeId="0" xr:uid="{E65B74A5-0455-465F-B731-CD4A7966C559}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="E30" authorId="140" shapeId="0" xr:uid="{2C6BB7BA-AFFF-4B01-AB7F-B486E6C60766}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureDevOpsAuditing/ADOVariableCreatedDeleted.yaml</t>
       </text>
     </comment>
     <comment ref="F30" authorId="141" shapeId="0" xr:uid="{9581C0CB-E269-45F8-A43B-3D51D37F4810}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureDiagnostics/AzureKeyVaultAccessManipulation.yaml</t>
       </text>
     </comment>
     <comment ref="G30" authorId="142" shapeId="0" xr:uid="{C6B59D4D-6D83-4C78-95D7-56B24560A03C}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="H30" authorId="143" shapeId="0" xr:uid="{FCF6BA8D-3612-409C-9A2B-7DFBEC98B76B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityAlert</t>
       </text>
     </comment>
     <comment ref="I30" authorId="144" shapeId="0" xr:uid="{A68B6144-E81A-4915-9722-A24FC4A75A3B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/OfficeActivity</t>
       </text>
     </comment>
     <comment ref="J30" authorId="145" shapeId="0" xr:uid="{4E54FD4F-B782-42A4-9149-DAF5B946E49D}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/OfficeActivity</t>
       </text>
     </comment>
     <comment ref="L30" authorId="146" shapeId="0" xr:uid="{D47B8157-9731-4858-AE50-A08F3BE2EBA6}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/OfficeActivity</t>
       </text>
     </comment>
     <comment ref="N30" authorId="147" shapeId="0" xr:uid="{28DA58BB-A36C-42FB-A781-4F35B61FDD2E}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cis-azure-1.3.0-4.3.1/</t>
       </text>
     </comment>
     <comment ref="A31" authorId="148" shapeId="0" xr:uid="{D3D338C9-D268-4238-BAE9-2515C5207C82}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="B31" authorId="149" shapeId="0" xr:uid="{1FABA0AC-FB31-4556-8C1D-A9ACF6B354A4}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="C31" authorId="150" shapeId="0" xr:uid="{31F0461A-F6F0-4FB0-A948-B1D603A68A3D}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureDevOpsAuditing/Public%20project%20created.yaml</t>
       </text>
     </comment>
     <comment ref="D31" authorId="151" shapeId="0" xr:uid="{4A9B6747-8797-4194-8AB3-9E3AB3F4C747}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="E31" authorId="152" shapeId="0" xr:uid="{4FE7E2CC-FF2D-4475-B70C-3D99A6CA6262}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureDevOpsAuditing/Addtional%20Org%20Admin%20Added.yaml</t>
       </text>
     </comment>
     <comment ref="F31" authorId="153" shapeId="0" xr:uid="{FFA93CC1-7958-4924-B2C1-6ACA1BBB08C5}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureStorage/AzureStorageUploadLinkAccount.yaml</t>
       </text>
     </comment>
     <comment ref="H31" authorId="154" shapeId="0" xr:uid="{34FD41D2-A38A-4AAE-8157-F5C4915B6836}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="I31" authorId="155" shapeId="0" xr:uid="{6E73B959-4C69-48A1-9840-4C163F5C3FAE}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/OfficeActivity</t>
       </text>
     </comment>
     <comment ref="J31" authorId="156" shapeId="0" xr:uid="{3F9EF991-DC95-481F-87E6-5702D1FD3F7D}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/OfficeActivity</t>
       </text>
     </comment>
     <comment ref="L31" authorId="157" shapeId="0" xr:uid="{9333018E-E882-44DE-94DA-D0C413A207FE}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/OfficeActivity</t>
       </text>
     </comment>
     <comment ref="N31" authorId="158" shapeId="0" xr:uid="{2F2ACB5C-721D-446B-AE8B-B7AF13C894B3}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cis-azure-1.3.0-8.1/</t>
       </text>
     </comment>
     <comment ref="A32" authorId="159" shapeId="0" xr:uid="{866B28A3-92E6-4F3F-9EFC-F9AA5D329F89}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="B32" authorId="160" shapeId="0" xr:uid="{DD69834A-EC59-4C22-8BE1-76DE81D11157}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="C32" authorId="161" shapeId="0" xr:uid="{B6B9830D-16D8-4572-80E1-7A83B52535C7}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="D32" authorId="162" shapeId="0" xr:uid="{7D8502E7-B51E-4C56-9BE3-19A2A48CCE36}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="E32" authorId="163" shapeId="0" xr:uid="{B66EA210-0EA2-4FCE-817F-C45E47CECB23}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureDevOpsAuditing/AzDODisplayNameSwapping.yaml</t>
       </text>
     </comment>
     <comment ref="F32" authorId="164" shapeId="0" xr:uid="{02F2BF88-30EC-4A91-A5DD-A1CEE7DB6948}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="H32" authorId="165" shapeId="0" xr:uid="{ED1BBE4B-42FA-4575-93AF-6BE749999F0C}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="I32" authorId="166" shapeId="0" xr:uid="{00B5E05F-0AC5-433D-97AE-84FCEFADC00C}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/OfficeActivity</t>
       </text>
     </comment>
     <comment ref="J32" authorId="167" shapeId="0" xr:uid="{EB128F6D-637C-4DD9-AB66-1ABCE3C9E4E2}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/OfficeActivity</t>
       </text>
     </comment>
     <comment ref="L32" authorId="168" shapeId="0" xr:uid="{36AE2A64-D54D-489C-9FAC-542E8B044216}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="N32" authorId="169" shapeId="0" xr:uid="{A774ECEC-407F-4F8F-B6E4-FBD69B4EA8D2}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cis-azure-1.3.0-8.2/</t>
       </text>
     </comment>
     <comment ref="A33" authorId="170" shapeId="0" xr:uid="{7E6317CA-A56A-406D-B09D-802A6ABBB30C}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="B33" authorId="171" shapeId="0" xr:uid="{FBE786C6-2D0D-4FA6-A3E0-091F7A94F703}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="C33" authorId="172" shapeId="0" xr:uid="{F09F4923-85FE-4478-8D92-A07AA3682BFA}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="E33" authorId="173" shapeId="0" xr:uid="{BD0F1570-39AB-456D-80CE-63A97ED96C13}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureDevOpsAuditing/Guest%20users%20access%20enabled.yaml</t>
       </text>
     </comment>
     <comment ref="F33" authorId="174" shapeId="0" xr:uid="{1F93AE36-B229-4933-A439-14F789558154}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="G33" authorId="175" shapeId="0" xr:uid="{0B7A9B24-6ED6-47BB-BA78-C66CF0B128AF}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/discovery_blob_container_access_mod.toml</t>
       </text>
     </comment>
     <comment ref="H33" authorId="176" shapeId="0" xr:uid="{E4F31F65-8C5B-45A8-9BC5-FC6D13C817CA}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="I33" authorId="177" shapeId="0" xr:uid="{3059C161-7D25-4983-B0E9-4ABB6532C2B9}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/OfficeActivity</t>
       </text>
     </comment>
     <comment ref="J33" authorId="178" shapeId="0" xr:uid="{9B9D75E8-B2B0-4467-9FFE-6BF97D9C09D7}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/OfficeActivity</t>
       </text>
     </comment>
     <comment ref="L33" authorId="179" shapeId="0" xr:uid="{7E972430-013D-4450-85DD-EC851CFDDB2B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="N33" authorId="180" shapeId="0" xr:uid="{BB70403B-6312-4E42-BAE8-44489A7A4A66}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cis-azure-1.3.0-8.4/</t>
       </text>
     </comment>
     <comment ref="A34" authorId="181" shapeId="0" xr:uid="{0CEBEC46-457C-4CE6-8030-BC687CC7099C}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="B34" authorId="182" shapeId="0" xr:uid="{D6391070-C1C4-43AF-8C7F-819F74C756FE}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="C34" authorId="183" shapeId="0" xr:uid="{74992F51-F8ED-4418-A806-15124EDBF032}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="D34" authorId="184" shapeId="0" xr:uid="{F9F6E8A8-C975-4A25-9EB9-FB8838A0CB80}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/privilege_escalation_azure_kubernetes_rolebinding_created.toml</t>
       </text>
     </comment>
     <comment ref="E34" authorId="185" shapeId="0" xr:uid="{2E967850-BF76-43C1-B605-8C078C9BB86A}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureDevOpsAuditing/Public%20Projects%20enabled.yaml</t>
       </text>
     </comment>
     <comment ref="F34" authorId="186" shapeId="0" xr:uid="{BF9EC92C-C841-4315-B1D9-D35C30CFFFD5}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="H34" authorId="187" shapeId="0" xr:uid="{0C085496-203A-4524-863C-0379B863B839}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="I34" authorId="188" shapeId="0" xr:uid="{378BF7C4-759D-40DA-B0C7-6C7EE52783C7}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/OfficeActivity</t>
       </text>
     </comment>
     <comment ref="J34" authorId="189" shapeId="0" xr:uid="{F9CA83A1-B5B2-4F14-88BB-F0485FA78482}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/OfficeActivity</t>
       </text>
     </comment>
     <comment ref="L34" authorId="190" shapeId="0" xr:uid="{18E36C18-14C4-45B3-ABFB-AF90F4E993AF}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="N34" authorId="191" shapeId="0" xr:uid="{01393914-299D-468F-BAED-1485B68C1E61}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cis-azure-1.3.0-8.5/</t>
       </text>
     </comment>
     <comment ref="A35" authorId="192" shapeId="0" xr:uid="{F6AE46F4-6A9D-47BE-9A7E-A7ED312E4A59}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="B35" authorId="193" shapeId="0" xr:uid="{220C6B1C-90CE-4E70-98C5-B4CC1731327C}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="C35" authorId="194" shapeId="0" xr:uid="{1BED13A5-60D2-4264-96BC-A24E275055DC}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="E35" authorId="195" shapeId="0" xr:uid="{AE0150D5-2C97-49F3-99D7-1223E998B5BF}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureDevOpsAuditing/Public%20project%20created.yaml</t>
       </text>
     </comment>
     <comment ref="F35" authorId="196" shapeId="0" xr:uid="{4788FEB3-76B2-4269-BF17-5FE1894BFDBA}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="H35" authorId="197" shapeId="0" xr:uid="{B7A817A4-2BAE-49B4-9EEC-EBC6BACC8456}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="I35" authorId="198" shapeId="0" xr:uid="{68876E1B-0624-4A4F-BF3A-E479AC2B4A12}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/OfficeActivity</t>
       </text>
     </comment>
     <comment ref="J35" authorId="199" shapeId="0" xr:uid="{0D7405C6-DF08-4965-93E7-A2D8226E91DD}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="N35" authorId="200" shapeId="0" xr:uid="{16D000F5-BDD7-4F46-A6EE-6E33F5B14F70}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cis-azure-1.3.0-2.11/</t>
       </text>
     </comment>
     <comment ref="A36" authorId="201" shapeId="0" xr:uid="{9C9FBB92-D4E8-4580-A8C2-D6B18B01EDBD}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="B36" authorId="202" shapeId="0" xr:uid="{3641469B-3039-46B3-B596-33C444C873DB}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="C36" authorId="203" shapeId="0" xr:uid="{15F58644-1691-4348-92E5-896210A250DB}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="E36" authorId="204" shapeId="0" xr:uid="{8E6800DC-3831-4EA9-8DDE-57D811304C24}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="F36" authorId="205" shapeId="0" xr:uid="{4EE9F635-BAE9-451F-956B-2728F2B1202E}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="H36" authorId="206" shapeId="0" xr:uid="{B26DCAE7-3724-4507-A09B-2222F7C96985}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="I36" authorId="207" shapeId="0" xr:uid="{9E71CD41-B661-445E-B542-6DF6C25D10B7}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityAlert</t>
       </text>
     </comment>
     <comment ref="J36" authorId="208" shapeId="0" xr:uid="{EF418F2B-B088-4C8F-AE06-6C7608F07727}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="N36" authorId="209" shapeId="0" xr:uid="{5B0D0785-432B-449C-B0B9-C095ED44F151}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cis-azure-1.3.0-6.3-postgresql/</t>
       </text>
     </comment>
     <comment ref="A37" authorId="210" shapeId="0" xr:uid="{7ECE3697-D44B-4F81-AE89-6425E8048767}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="B37" authorId="211" shapeId="0" xr:uid="{91E5FFA2-9B6F-4468-940F-E8E76C616C18}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="C37" authorId="212" shapeId="0" xr:uid="{FDD4B546-B356-4C25-B733-F4F3CD85480B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="E37" authorId="213" shapeId="0" xr:uid="{813196B5-2521-4A0D-9C1E-EDA28156877A}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="F37" authorId="214" shapeId="0" xr:uid="{E1851CD6-54C0-4680-9D57-3FA805780B70}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="H37" authorId="215" shapeId="0" xr:uid="{EA8BA3C1-8F42-4E71-9AE2-F30B064418DE}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="I37" authorId="216" shapeId="0" xr:uid="{54BB2C65-CC45-4414-9B53-45D054E4CF70}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityAlert</t>
       </text>
     </comment>
     <comment ref="J37" authorId="217" shapeId="0" xr:uid="{98876EFD-6D6E-4E81-AD36-910CA8D1B96E}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="N37" authorId="218" shapeId="0" xr:uid="{3EF1B569-0A16-480B-8663-D6AA47C619AE}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cis-azure-1.3.0-6.1/</t>
       </text>
     </comment>
     <comment ref="A38" authorId="219" shapeId="0" xr:uid="{F87CE68E-6248-4B72-88F1-FCB36CDA2CE8}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="B38" authorId="220" shapeId="0" xr:uid="{D323A744-D43B-409C-900B-68325230E27A}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="C38" authorId="221" shapeId="0" xr:uid="{50FCFC36-BFB1-42D9-A61C-0A744F6B3729}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="E38" authorId="222" shapeId="0" xr:uid="{7C8BD7EF-476D-47AC-994D-9605269FC185}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/OfficeActivity</t>
       </text>
     </comment>
     <comment ref="F38" authorId="223" shapeId="0" xr:uid="{8A61070F-4229-4789-8BAC-778BE4A2A226}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="H38" authorId="224" shapeId="0" xr:uid="{4C3D32D1-D5DF-4833-92C6-9D499B4A171F}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="I38" authorId="225" shapeId="0" xr:uid="{7D983235-B21D-47CA-8616-90F4DC86FAEE}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityAlert</t>
       </text>
     </comment>
     <comment ref="N38" authorId="226" shapeId="0" xr:uid="{9E39EB7D-073E-4289-8283-37804F205BCC}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cis-azure-1.3.0-6.3-sql/</t>
       </text>
     </comment>
     <comment ref="A39" authorId="227" shapeId="0" xr:uid="{010A4912-85E4-47D9-B948-102D81B55661}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="B39" authorId="228" shapeId="0" xr:uid="{5D834B5B-D096-4340-8C51-B1E68514B2EB}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="C39" authorId="229" shapeId="0" xr:uid="{7814634C-054E-4860-8180-7008216A28D2}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="E39" authorId="230" shapeId="0" xr:uid="{6658B0FA-1ADC-473E-893A-4E565612198F}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="F39" authorId="231" shapeId="0" xr:uid="{4108B36F-BF5F-4AC6-9F1E-C7349AB4023F}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="I39" authorId="232" shapeId="0" xr:uid="{7CFA41FE-3A9F-4A3A-863C-6F4A5083EDDB}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityAlert</t>
       </text>
     </comment>
     <comment ref="N39" authorId="233" shapeId="0" xr:uid="{918209E5-120E-48FF-93A8-C92E099B4AE7}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cis-azure-1.3.0-6.2/</t>
       </text>
     </comment>
     <comment ref="A40" authorId="234" shapeId="0" xr:uid="{AD6AE8E6-4D1F-4F18-9EE1-A37B36A674EB}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="B40" authorId="235" shapeId="0" xr:uid="{C6503A73-BB36-4C0D-9688-0457E5F31CE4}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="C40" authorId="236" shapeId="0" xr:uid="{331979CF-540F-4903-B692-92F1666C6E9B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="E40" authorId="237" shapeId="0" xr:uid="{EC062670-196B-4E76-9E4E-6D052E4D6895}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="F40" authorId="238" shapeId="0" xr:uid="{79B23277-15C6-4FA1-8DC1-2BC77E009EAA}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="I40" authorId="239" shapeId="0" xr:uid="{D3308DA6-E854-4112-AD93-E4EDAFAAFC50}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityAlert</t>
       </text>
     </comment>
     <comment ref="J40" authorId="240" shapeId="0" xr:uid="{A5A82C88-90BA-42F4-9B09-55F285228A3F}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/collection_update_event_hub_auth_rule.toml</t>
       </text>
     </comment>
     <comment ref="N40" authorId="241" shapeId="0" xr:uid="{513DCF2E-8444-4136-A1D9-8BB118DC5D0B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cis-azure-1.3.0-6.6/</t>
       </text>
     </comment>
     <comment ref="A41" authorId="242" shapeId="0" xr:uid="{8BA71E97-4CD6-41C5-9FE9-4A5A55D3D7BB}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="B41" authorId="243" shapeId="0" xr:uid="{D2624975-D75D-48CB-ACDF-75972338684B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="C41" authorId="244" shapeId="0" xr:uid="{AD49AA98-F13D-47C1-9DCA-0D31C879894B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/OfficeActivity</t>
       </text>
     </comment>
     <comment ref="F41" authorId="245" shapeId="0" xr:uid="{B6C3766C-FBC5-45CE-B329-A76E86A7BE56}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="I41" authorId="246" shapeId="0" xr:uid="{C6FF47C1-F3B3-48F6-B792-4936FD381CA7}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="N41" authorId="247" shapeId="0" xr:uid="{73649D87-51E7-464C-9FA2-D8D67F241404}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cis-azure-1.3.0-4.5/</t>
       </text>
     </comment>
     <comment ref="A42" authorId="248" shapeId="0" xr:uid="{7BC9D4F0-9621-4EB2-B0E2-EF76606552E8}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="B42" authorId="249" shapeId="0" xr:uid="{397B8AC4-BD87-4E26-9020-E3F032963A9F}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="C42" authorId="250" shapeId="0" xr:uid="{6EDA098A-1433-464E-BC23-F5482E4A0D66}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/OfficeActivity</t>
       </text>
     </comment>
     <comment ref="F42" authorId="251" shapeId="0" xr:uid="{543D083F-28DB-4269-B184-7E436E8E8346}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="I42" authorId="252" shapeId="0" xr:uid="{F1E52366-1259-4386-8B57-0BE0BD27ECE4}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="N42" authorId="253" shapeId="0" xr:uid="{EC295689-F3A9-49CB-A6EE-37D13FC0BF49}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cis-azure-1.3.0-4.2.2/</t>
       </text>
     </comment>
     <comment ref="A43" authorId="254" shapeId="0" xr:uid="{E9B83FAB-0C99-4E5E-B4CC-172996C53C23}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="B43" authorId="255" shapeId="0" xr:uid="{0DC8BE70-AAE1-485A-B4C4-E85FD32F7A4C}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="C43" authorId="256" shapeId="0" xr:uid="{4D13B76A-7902-42F4-9628-C7DB72EA91EA}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/OfficeActivity</t>
       </text>
     </comment>
     <comment ref="E43" authorId="257" shapeId="0" xr:uid="{B3B10887-75C8-459E-AD36-1A307932484B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/defense_evasion_azure_application_credential_modification.toml</t>
       </text>
     </comment>
     <comment ref="I43" authorId="258" shapeId="0" xr:uid="{1F561CF3-7D55-4110-B8C4-40FED9904A5F}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="N43" authorId="259" shapeId="0" xr:uid="{A3A9CC23-29FC-4908-81AB-C3BA18020112}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cis-azure-1.3.0-4.2.3/</t>
       </text>
     </comment>
     <comment ref="A44" authorId="260" shapeId="0" xr:uid="{D6EDBA59-9601-4DE5-8B06-5DF8623E650D}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="C44" authorId="261" shapeId="0" xr:uid="{DC7228BA-F138-4883-A097-2FAF8699CFD1}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/OfficeActivity</t>
       </text>
     </comment>
     <comment ref="E44" authorId="262" shapeId="0" xr:uid="{7A297258-1BE6-4D9F-BD72-F88C0DC83ED6}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/defense_evasion_azure_blob_permissions_modified.toml</t>
       </text>
     </comment>
     <comment ref="I44" authorId="263" shapeId="0" xr:uid="{1E101E60-3F20-4AEE-A86A-439FBBDB672D}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="N44" authorId="264" shapeId="0" xr:uid="{AFB3C1EF-3052-4856-811C-F18E98074B88}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cis-azure-1.3.0-3.7/</t>
       </text>
     </comment>
     <comment ref="A45" authorId="265" shapeId="0" xr:uid="{F27EB23D-50D9-4BA9-9FDF-9B5E6015CDB1}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/OfficeActivity</t>
       </text>
     </comment>
     <comment ref="C45" authorId="266" shapeId="0" xr:uid="{72A294EC-53CB-4E3A-B061-715FBD2F6401}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/OfficeActivity</t>
       </text>
     </comment>
     <comment ref="E45" authorId="267" shapeId="0" xr:uid="{A6F67EB1-4902-446E-9927-EC8E4A1DA617}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/defense_evasion_azure_diagnostic_settings_deletion.toml</t>
       </text>
     </comment>
     <comment ref="I45" authorId="268" shapeId="0" xr:uid="{750AC41F-D372-4059-96E0-A708DB15F69A}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="K45" authorId="269" shapeId="0" xr:uid="{31D81E86-2BDE-4E02-A45C-FDD282481476}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureActivity/AnalyticsRulesAdministrativeOperations.yaml</t>
       </text>
     </comment>
     <comment ref="N45" authorId="270" shapeId="0" xr:uid="{665B9879-959D-41C7-9345-85CAEDA28D04}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cis-azure-1.3.0-3.6/</t>
       </text>
     </comment>
     <comment ref="A46" authorId="271" shapeId="0" xr:uid="{5516919C-7894-42A9-A029-2171E1E68C7E}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/OfficeActivity</t>
       </text>
     </comment>
     <comment ref="C46" authorId="272" shapeId="0" xr:uid="{A10F5320-F96A-40C0-BCAC-B81282CA7A88}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityAlert</t>
       </text>
     </comment>
     <comment ref="E46" authorId="273" shapeId="0" xr:uid="{B258BFC5-F060-46B6-9271-BAEA6C1F2442}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/defense_evasion_azure_service_principal_addition.toml</t>
       </text>
     </comment>
     <comment ref="I46" authorId="274" shapeId="0" xr:uid="{45293D14-1514-473D-943E-A69A094956E1}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="K46" authorId="275" shapeId="0" xr:uid="{B18DECFB-1C59-47CC-8FA8-AC107646280A}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureActivity/AzureNSG_AdministrativeOperations.yaml</t>
       </text>
     </comment>
     <comment ref="N46" authorId="276" shapeId="0" xr:uid="{33DC4F66-8EBB-407A-B9E1-1430EDB8F294}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cis-azure-1.3.0-3.9/</t>
       </text>
     </comment>
     <comment ref="A47" authorId="277" shapeId="0" xr:uid="{D400154A-97DE-4751-8438-682E7B66AE71}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="C47" authorId="278" shapeId="0" xr:uid="{CFBECA50-AC5C-40A0-93CC-796D55D11F6D}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityAlert</t>
       </text>
     </comment>
     <comment ref="E47" authorId="279" shapeId="0" xr:uid="{A2BF8D2E-3F15-4ECF-AE0C-7015410EE626}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/defense_evasion_event_hub_deletion.toml</t>
       </text>
     </comment>
     <comment ref="F47" authorId="280" shapeId="0" xr:uid="{40AF616B-2387-464E-9A33-8005070324CA}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/credential_access_azure_full_network_packet_capture_detected.toml</t>
       </text>
     </comment>
     <comment ref="I47" authorId="281" shapeId="0" xr:uid="{9D3944A5-8E9F-48AA-9579-FCE502F43C37}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/collection_update_event_hub_auth_rule.toml</t>
       </text>
     </comment>
     <comment ref="K47" authorId="282" shapeId="0" xr:uid="{E6383A63-9001-45AC-8F99-34A6B49E54CF}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureActivity/AzureSentinelConnectors_AdministrativeOperations.yaml</t>
       </text>
     </comment>
     <comment ref="N47" authorId="283" shapeId="0" xr:uid="{42C976C1-AF91-4590-A5A5-F8E02442551F}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/cis-azure-1.3.0-3.1/</t>
       </text>
     </comment>
     <comment ref="C48" authorId="284" shapeId="0" xr:uid="{2CB71B9D-1669-4378-A33E-6A9D4E2614C3}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityAlert</t>
       </text>
     </comment>
     <comment ref="E48" authorId="285" shapeId="0" xr:uid="{E9AEFD75-2FE7-49F6-8889-C9F3F95FAE98}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/defense_evasion_firewall_policy_deletion.toml</t>
       </text>
     </comment>
     <comment ref="F48" authorId="286" shapeId="0" xr:uid="{19AE6C98-23CF-44FA-8F61-D8FE2B1603DA}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/credential_access_key_vault_modified.toml</t>
       </text>
     </comment>
     <comment ref="I48" authorId="287" shapeId="0" xr:uid="{11591E6D-6375-4BE4-A84D-D1DB6A4A5742}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/azure-snapshot-export-uri-created/</t>
       </text>
     </comment>
     <comment ref="K48" authorId="288" shapeId="0" xr:uid="{6EB1F61E-C717-4225-875F-1118B72ABEB0}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureActivity/AzureSentinelWorkbooks_AdministrativeOperation.yaml</t>
       </text>
     </comment>
     <comment ref="C49" authorId="289" shapeId="0" xr:uid="{02D78A46-E7C6-42CF-8409-F5805519549B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityAlert</t>
       </text>
     </comment>
     <comment ref="E49" authorId="290" shapeId="0" xr:uid="{44DCE93F-082B-4D8F-B3CE-2F9E581BA384}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/defense_evasion_frontdoor_firewall_policy_deletion.toml</t>
       </text>
     </comment>
     <comment ref="F49" authorId="291" shapeId="0" xr:uid="{EFF07C96-669C-4799-BFED-C56A95C8B031}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/credential_access_storage_account_key_regenerated.toml</t>
       </text>
     </comment>
     <comment ref="K49" authorId="292" shapeId="0" xr:uid="{7AD5849F-D3E3-4F6E-8224-42CB9D4E5B34}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureActivity/AzureVirtualNetworkSubnets_AdministrativeOperationset.yaml</t>
       </text>
     </comment>
     <comment ref="C50" authorId="293" shapeId="0" xr:uid="{ADBDB8E4-B64C-456B-9632-BD7286FF57C0}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityAlert</t>
       </text>
     </comment>
     <comment ref="E50" authorId="294" shapeId="0" xr:uid="{176282F7-5920-423B-AB9F-2314750AD6B3}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/defense_evasion_kubernetes_events_deleted.toml</t>
       </text>
     </comment>
     <comment ref="F50" authorId="295" shapeId="0" xr:uid="{40BFE93D-79CB-4850-A538-C6D3C38427BF}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/initial_access_consent_grant_attack_via_azure_registered_application.toml</t>
       </text>
     </comment>
     <comment ref="K50" authorId="296" shapeId="0" xr:uid="{51193466-3852-4C66-A373-AB4F3C309944}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureActivity/Common_Deployed_Resources.yaml</t>
       </text>
     </comment>
     <comment ref="C51" authorId="297" shapeId="0" xr:uid="{88516A7F-F16E-49BB-BDE9-1798791ECB87}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityAlert</t>
       </text>
     </comment>
     <comment ref="E51" authorId="298" shapeId="0" xr:uid="{5B538154-213D-433D-B626-1962D66640D7}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/defense_evasion_network_watcher_deletion.toml</t>
       </text>
     </comment>
     <comment ref="F51" authorId="299" shapeId="0" xr:uid="{E85F3510-EA50-4D68-8C8B-3331F0A117E7}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/azure_login_explicitly_denied_mfa/</t>
       </text>
     </comment>
     <comment ref="K51" authorId="300" shapeId="0" xr:uid="{7DBC36F6-39FA-4428-92C7-FB6791E25995}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureActivity/Creating_Anomalous_Number_Of_Resources.yaml</t>
       </text>
     </comment>
     <comment ref="C52" authorId="301" shapeId="0" xr:uid="{B4A18F72-20E0-43B4-839D-D6B6E00ACC9C}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityAlert</t>
       </text>
     </comment>
     <comment ref="E52" authorId="302" shapeId="0" xr:uid="{7DC42E9C-A54A-4A90-95D6-27E18A992C62}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/impact_resource_group_deletion.toml</t>
       </text>
     </comment>
     <comment ref="F52" authorId="303" shapeId="0" xr:uid="{675578BE-B802-4FF6-BA9F-63CC28C4ED9D}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/azure_policy_assignment_created/</t>
       </text>
     </comment>
     <comment ref="K52" authorId="304" shapeId="0" xr:uid="{65982D7A-266D-4586-9793-366600691ABF}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureActivity/PortOpenedForAzureResource.yaml</t>
       </text>
     </comment>
     <comment ref="C53" authorId="305" shapeId="0" xr:uid="{2E43C294-AE23-4D27-84EF-3351ACEFA0C1}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="E53" authorId="306" shapeId="0" xr:uid="{F5BCC34A-EE47-4D0E-8EEC-D7F530A2B7F4}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/persistence_azure_privileged_identity_management_role_modified.toml</t>
       </text>
     </comment>
     <comment ref="F53" authorId="307" shapeId="0" xr:uid="{072926B4-7109-499D-A542-AC368EAEF7AD}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/azure_portal_brute_force_login/</t>
       </text>
     </comment>
     <comment ref="K53" authorId="308" shapeId="0" xr:uid="{653D15B3-D429-447C-BDA8-FC39B807A31E}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/blob/master/Hunting%20Queries/AzureStorage/AzureStorageMassDeletion.yaml</t>
       </text>
     </comment>
     <comment ref="B54" authorId="309" shapeId="0" xr:uid="{F8164043-B278-4650-AED5-E1BB3111D609}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/execution_command_virtual_machine.toml</t>
       </text>
     </comment>
     <comment ref="C54" authorId="310" shapeId="0" xr:uid="{6D59E0DB-C30D-4492-8209-1A9B32FDF715}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="E54" authorId="311" shapeId="0" xr:uid="{7A3F5E8F-D0E7-4AAE-9265-2C8F460934A7}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/azure-diagnostic-setting-deleted-or-disabled/</t>
       </text>
     </comment>
     <comment ref="K54" authorId="312" shapeId="0" xr:uid="{28A6150C-AF5D-4C20-8F39-14836FCD007C}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="B55" authorId="313" shapeId="0" xr:uid="{FA86D2AB-BAA9-4DC2-B3C7-E8F843DD0012}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/azure-command-executed-in-container-instance/</t>
       </text>
     </comment>
     <comment ref="C55" authorId="314" shapeId="0" xr:uid="{27F31E2C-10AD-4E89-8493-EE73913C421E}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="E55" authorId="315" shapeId="0" xr:uid="{E7F80422-8B6B-40C8-995F-6EA17A7A5BD1}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/azure_firewall_threat_intelligence_alert/</t>
       </text>
     </comment>
     <comment ref="K55" authorId="316" shapeId="0" xr:uid="{C2A16D54-68FD-48FE-9611-8460C45EFE06}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="B56" authorId="317" shapeId="0" xr:uid="{D9CA7D61-099F-409F-9C6A-09164B8E0247}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/azure_run_command_on_virtual_machine/</t>
       </text>
     </comment>
     <comment ref="C56" authorId="318" shapeId="0" xr:uid="{FB4C4D01-9017-4C17-A449-73AFB52EA39D}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="E56" authorId="319" shapeId="0" xr:uid="{ECCBE3E9-9A16-4EB2-B34E-02F28FB47478}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/azure_network_security_groups_rules_created_modified_or_deleted/</t>
       </text>
     </comment>
     <comment ref="K56" authorId="320" shapeId="0" xr:uid="{57655BAC-C35D-4088-9B25-EEB5D7778586}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="C57" authorId="321" shapeId="0" xr:uid="{8E20BA6C-EC68-4ADD-B2C5-3CE6ADB69773}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="E57" authorId="322" shapeId="0" xr:uid="{BE588D6D-0EEE-400D-BBD5-CAEA00C3A2F7}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/azure_sql_server_firewall_rules_created_or_modified/</t>
       </text>
     </comment>
     <comment ref="K57" authorId="323" shapeId="0" xr:uid="{6E3437B1-8533-4B5A-BFB2-9366D4C0F9D7}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="C58" authorId="324" shapeId="0" xr:uid="{D2FCC1C9-B19D-4DF7-8D5A-214B906C39D0}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="K58" authorId="325" shapeId="0" xr:uid="{F9378570-0D90-4C91-9DE8-CC23B3C1D3FF}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="C59" authorId="326" shapeId="0" xr:uid="{D356C626-BCAE-44E1-91F0-5720ADEE21E9}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="K59" authorId="327" shapeId="0" xr:uid="{D11F5F07-1338-47FD-83FE-F94CBEA231CA}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="K60" authorId="328" shapeId="0" xr:uid="{97D6DCC4-7672-4565-A336-236D9E965CE4}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/MultipleDataSources</t>
       </text>
     </comment>
     <comment ref="K61" authorId="329" shapeId="0" xr:uid="{4001D059-7347-47CA-9FA2-E30BBDB45262}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/OfficeActivity</t>
       </text>
     </comment>
     <comment ref="K62" authorId="330" shapeId="0" xr:uid="{541B04AF-A459-4308-BCD4-1981974D4B53}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="K63" authorId="331" shapeId="0" xr:uid="{8C60DA97-5936-4591-80F8-C86F5C6305F8}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/Azure/Azure-Sentinel/tree/master/Hunting%20Queries/SecurityEvent</t>
       </text>
     </comment>
     <comment ref="K67" authorId="332" shapeId="0" xr:uid="{E192703F-2BDE-4E7C-B0EF-63CA12A95439}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/impact_azure_automation_runbook_deleted.toml</t>
       </text>
     </comment>
     <comment ref="K68" authorId="333" shapeId="0" xr:uid="{D119595A-E782-4709-B889-F93B12F106EC}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/impact_azure_service_principal_credentials_added.toml</t>
       </text>
     </comment>
     <comment ref="K69" authorId="334" shapeId="0" xr:uid="{6B914B2D-887E-4865-B7BF-07796A7570A3}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/impact_kubernetes_pod_deleted.toml</t>
       </text>
     </comment>
     <comment ref="K70" authorId="335" shapeId="0" xr:uid="{DA6F7A8D-818F-43F1-B7B9-68BFBE7E3118}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/impact_resource_group_deletion.toml</t>
       </text>
     </comment>
     <comment ref="C71" authorId="336" shapeId="0" xr:uid="{42A4EACF-9E77-4883-B04A-3BE90381AC17}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/persistence_azure_automation_account_created.toml</t>
       </text>
     </comment>
     <comment ref="K71" authorId="337" shapeId="0" xr:uid="{D3903FF0-C9A1-499A-8894-4763566B4DCB}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/impact_virtual_network_device_modified.toml</t>
       </text>
     </comment>
     <comment ref="C72" authorId="338" shapeId="0" xr:uid="{CCA7DDAD-E8B6-4DC1-A808-6D739EAB29C3}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/persistence_azure_automation_runbook_created_or_modified.toml</t>
       </text>
     </comment>
     <comment ref="K72" authorId="339" shapeId="0" xr:uid="{7CBFF18F-6695-41B5-AD5A-2BE5097CAA8E}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/azure_user_invited_an_external_user/</t>
       </text>
     </comment>
     <comment ref="C73" authorId="340" shapeId="0" xr:uid="{BB0B0A77-BDE4-4676-99B2-8B9BC59AC0DA}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/persistence_azure_automation_webhook_created.toml</t>
       </text>
     </comment>
     <comment ref="C74" authorId="341" shapeId="0" xr:uid="{CCF5C75D-DDEE-46A4-AD93-E99DD7909D64}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/persistence_azure_conditional_access_policy_modified.toml</t>
       </text>
     </comment>
     <comment ref="C75" authorId="342" shapeId="0" xr:uid="{6B740108-A941-4DC8-B3A4-6F5C568ECD63}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/persistence_azure_pim_user_added_global_admin.toml</t>
       </text>
     </comment>
     <comment ref="C76" authorId="343" shapeId="0" xr:uid="{F88C1E1A-4F6A-4881-9431-80B3F5F4BA79}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/persistence_azure_privileged_identity_management_role_modified.toml</t>
       </text>
     </comment>
     <comment ref="C77" authorId="344" shapeId="0" xr:uid="{92B41F37-67A6-4758-97F8-A585EE3AD0FF}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/persistence_mfa_disabled_for_azure_user.toml</t>
       </text>
     </comment>
     <comment ref="C78" authorId="345" shapeId="0" xr:uid="{1FED5E99-D72E-45C5-B089-4D7C3C3ABA11}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/persistence_user_added_as_owner_for_azure_application.toml</t>
       </text>
     </comment>
     <comment ref="A79" authorId="346" shapeId="0" xr:uid="{093C774E-6392-41B7-B36F-D8E85AD5D184}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/discovery_blob_container_access_mod.toml</t>
       </text>
     </comment>
     <comment ref="C79" authorId="347" shapeId="0" xr:uid="{0F432665-07F0-42E6-9844-C7B5525359BE}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/persistence_user_added_as_owner_for_azure_service_principal.toml</t>
       </text>
     </comment>
     <comment ref="A80" authorId="348" shapeId="0" xr:uid="{4D527491-150D-4987-8588-BF68341228FD}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/initial_access_azure_active_directory_high_risk_signin.toml</t>
       </text>
     </comment>
     <comment ref="C80" authorId="349" shapeId="0" xr:uid="{E5C53D8F-C350-4F8B-8FE5-6ABF23EEBA19}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/azure-add-owner-service-principal/</t>
       </text>
     </comment>
     <comment ref="A81" authorId="350" shapeId="0" xr:uid="{1798B4EE-812E-4B09-AFA7-F98770AB8457}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/initial_access_azure_active_directory_high_risk_signin_atrisk_or_confirmed.toml</t>
       </text>
     </comment>
     <comment ref="C81" authorId="351" shapeId="0" xr:uid="{0AD323FA-B37C-42D9-BFE6-EFD727FD7EC3}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/azure-new-owner-added-to-application/</t>
       </text>
     </comment>
     <comment ref="A82" authorId="352" shapeId="0" xr:uid="{29069466-6F16-4691-99F4-511DACD52872}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/initial_access_azure_active_directory_powershell_signin.toml</t>
       </text>
     </comment>
     <comment ref="C82" authorId="353" shapeId="0" xr:uid="{87030A51-E7F6-4619-BE76-9341AA21EADA}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/azure-new-service-principal-created/</t>
       </text>
     </comment>
     <comment ref="A83" authorId="354" shapeId="0" xr:uid="{CF854A0F-3FDA-479F-BEE4-CF00E0A79E93}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/initial_access_consent_grant_attack_via_azure_registered_application.toml</t>
       </text>
     </comment>
     <comment ref="A84" authorId="355" shapeId="0" xr:uid="{00E9CEB5-BD84-40AA-A22E-A20D889A4C20}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://github.com/elastic/detection-rules/blob/main/rules/integrations/azure/initial_access_external_guest_user_invite.toml</t>
       </text>
     </comment>
     <comment ref="A85" authorId="356" shapeId="0" xr:uid="{9919A54C-EA47-4565-9B5B-0A0EB71C39F6}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/azure-active-directory-risky-sign-in/</t>
       </text>
     </comment>
     <comment ref="A86" authorId="357" shapeId="0" xr:uid="{C9A6C668-B683-40B9-A147-864D9D9FB74C}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/azure-ad-sign-in-without-mfa/</t>
       </text>
     </comment>
     <comment ref="A87" authorId="358" shapeId="0" xr:uid="{2774A978-C336-4C79-BDDD-CDCCAA1430C3}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/azure-frontdoor-waf-blocked-a-request/</t>
       </text>
     </comment>
     <comment ref="A88" authorId="359" shapeId="0" xr:uid="{67BDC2CB-2E76-4900-BCD7-141985D0BEDB}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/azure-frontdoor-waf-logged-a-request/</t>
       </text>
     </comment>
     <comment ref="A89" authorId="360" shapeId="0" xr:uid="{E1950A3E-B644-4979-9861-F48745426769}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
     https://docs.datadoghq.com/security_platform/default_rules/azure-network-security-group-open-to-the-world/</t>
       </text>
     </comment>
@@ -5054,11 +5054,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5066,21 +5066,21 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5088,8 +5088,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5202,7 +5209,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6592,18 +6599,18 @@
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="49.85546875" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="49.875" customWidth="1"/>
+    <col min="2" max="2" width="42.625" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" customWidth="1"/>
-    <col min="6" max="6" width="54.85546875" customWidth="1"/>
-    <col min="7" max="7" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="38.5" customWidth="1"/>
+    <col min="6" max="6" width="54.875" customWidth="1"/>
+    <col min="7" max="7" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="18" thickBot="1">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6626,7 +6633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1">
+    <row r="2" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -6649,7 +6656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -6666,7 +6673,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -6677,7 +6684,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -6685,22 +6692,22 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18" thickBot="1">
+    <row r="24" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
@@ -6720,7 +6727,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickTop="1">
+    <row r="25" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -6740,57 +6747,58 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="18" thickBot="1">
+    <row r="35" spans="1:1" ht="21" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15" thickTop="1">
+    <row r="36" spans="1:1" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A36" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6802,28 +6810,28 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="37" style="6" customWidth="1"/>
-    <col min="2" max="3" width="36.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.28515625" style="6" customWidth="1"/>
-    <col min="6" max="7" width="39.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="33.5703125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="37.85546875" style="6" customWidth="1"/>
+    <col min="2" max="3" width="36.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="37.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.375" style="6" customWidth="1"/>
+    <col min="6" max="7" width="39.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="33.5" style="6" customWidth="1"/>
+    <col min="9" max="9" width="37.875" style="6" customWidth="1"/>
     <col min="10" max="10" width="38" style="6" customWidth="1"/>
-    <col min="11" max="11" width="39.28515625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="41.7109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="40.5703125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="43.7109375" style="6" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="6"/>
+    <col min="11" max="11" width="39.375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="41.625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="40.5" style="6" customWidth="1"/>
+    <col min="14" max="14" width="43.625" style="6" customWidth="1"/>
+    <col min="15" max="16384" width="8.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>46</v>
       </c>
@@ -6861,7 +6869,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30">
+    <row r="2" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>58</v>
       </c>
@@ -6899,7 +6907,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="43.15">
+    <row r="3" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>70</v>
       </c>
@@ -6931,7 +6939,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="28.9">
+    <row r="4" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>80</v>
       </c>
@@ -6954,7 +6962,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="28.9">
+    <row r="5" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="C5" s="6" t="s">
         <v>87</v>
       </c>
@@ -6971,7 +6979,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="28.9">
+    <row r="6" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="C6" s="6" t="s">
         <v>92</v>
       </c>
@@ -6988,7 +6996,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="28.9">
+    <row r="7" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="C7" s="6" t="s">
         <v>97</v>
       </c>
@@ -7002,7 +7010,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="43.15">
+    <row r="8" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="C8" s="6" t="s">
         <v>101</v>
       </c>
@@ -7016,7 +7024,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="28.9">
+    <row r="9" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="D9" s="6" t="s">
         <v>99</v>
       </c>
@@ -7024,7 +7032,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="28.9">
+    <row r="10" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="D10" s="6" t="s">
         <v>105</v>
       </c>
@@ -7032,7 +7040,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="28.9">
+    <row r="11" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="D11" s="6" t="s">
         <v>107</v>
       </c>
@@ -7040,7 +7048,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="28.9">
+    <row r="12" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="D12" s="6" t="s">
         <v>109</v>
       </c>
@@ -7048,7 +7056,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="26.45" customHeight="1">
+    <row r="13" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D13" s="6" t="s">
         <v>111</v>
       </c>
@@ -7056,22 +7064,22 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="26.45" customHeight="1">
+    <row r="14" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E14" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="26.45" customHeight="1">
+    <row r="15" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E15" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="26.45" customHeight="1">
+    <row r="16" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E16" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="7" customFormat="1">
+    <row r="17" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="L17" s="8" t="s">
         <v>116</v>
       </c>
@@ -7082,7 +7090,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="28.9">
+    <row r="18" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>118</v>
       </c>
@@ -7126,7 +7134,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="28.9">
+    <row r="19" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>131</v>
       </c>
@@ -7170,7 +7178,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="43.15">
+    <row r="20" spans="1:14" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>145</v>
       </c>
@@ -7211,7 +7219,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="43.15">
+    <row r="21" spans="1:14" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
         <v>158</v>
       </c>
@@ -7252,7 +7260,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="28.9">
+    <row r="22" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
         <v>171</v>
       </c>
@@ -7293,7 +7301,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="43.15">
+    <row r="23" spans="1:14" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>182</v>
       </c>
@@ -7334,7 +7342,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="28.9">
+    <row r="24" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>195</v>
       </c>
@@ -7375,7 +7383,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="43.15">
+    <row r="25" spans="1:14" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>208</v>
       </c>
@@ -7416,7 +7424,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="28.9">
+    <row r="26" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>221</v>
       </c>
@@ -7457,7 +7465,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="28.9">
+    <row r="27" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>232</v>
       </c>
@@ -7498,7 +7506,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="28.9">
+    <row r="28" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>244</v>
       </c>
@@ -7539,7 +7547,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="28.9">
+    <row r="29" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
         <v>256</v>
       </c>
@@ -7580,7 +7588,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="28.9">
+    <row r="30" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
         <v>268</v>
       </c>
@@ -7621,7 +7629,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="28.9">
+    <row r="31" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
         <v>280</v>
       </c>
@@ -7662,7 +7670,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="43.15">
+    <row r="32" spans="1:14" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
         <v>292</v>
       </c>
@@ -7703,7 +7711,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="28.9">
+    <row r="33" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
         <v>305</v>
       </c>
@@ -7744,7 +7752,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="43.15">
+    <row r="34" spans="1:14" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
         <v>317</v>
       </c>
@@ -7782,7 +7790,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="28.9">
+    <row r="35" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
         <v>327</v>
       </c>
@@ -7817,7 +7825,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="28.9">
+    <row r="36" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
         <v>336</v>
       </c>
@@ -7852,7 +7860,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="28.9">
+    <row r="37" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
         <v>345</v>
       </c>
@@ -7884,7 +7892,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="28.9">
+    <row r="38" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
         <v>354</v>
       </c>
@@ -7916,7 +7924,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="28.9">
+    <row r="39" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A39" s="6" t="s">
         <v>363</v>
       </c>
@@ -7948,7 +7956,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="28.9">
+    <row r="40" spans="1:14" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
         <v>372</v>
       </c>
@@ -7977,7 +7985,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="28.9">
+    <row r="41" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A41" s="6" t="s">
         <v>380</v>
       </c>
@@ -8003,7 +8011,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="28.9">
+    <row r="42" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A42" s="6" t="s">
         <v>387</v>
       </c>
@@ -8029,7 +8037,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="28.9">
+    <row r="43" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A43" s="6" t="s">
         <v>394</v>
       </c>
@@ -8055,7 +8063,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="28.9">
+    <row r="44" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A44" s="6" t="s">
         <v>402</v>
       </c>
@@ -8081,7 +8089,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="28.9">
+    <row r="45" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A45" s="6" t="s">
         <v>409</v>
       </c>
@@ -8107,7 +8115,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="28.9">
+    <row r="46" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A46" s="6" t="s">
         <v>416</v>
       </c>
@@ -8133,7 +8141,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="28.9">
+    <row r="47" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A47" s="6" t="s">
         <v>423</v>
       </c>
@@ -8159,7 +8167,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="28.9">
+    <row r="48" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A48" s="6" t="s">
         <v>430</v>
       </c>
@@ -8182,7 +8190,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="28.9">
+    <row r="49" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A49" s="6" t="s">
         <v>436</v>
       </c>
@@ -8202,7 +8210,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="28.9">
+    <row r="50" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A50" s="6" t="s">
         <v>441</v>
       </c>
@@ -8222,7 +8230,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="28.9">
+    <row r="51" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A51" s="6" t="s">
         <v>446</v>
       </c>
@@ -8242,7 +8250,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="28.9" customHeight="1">
+    <row r="52" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="6" t="s">
         <v>451</v>
       </c>
@@ -8262,7 +8270,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="28.9" customHeight="1">
+    <row r="53" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="6" t="s">
         <v>456</v>
       </c>
@@ -8282,7 +8290,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="28.9" customHeight="1">
+    <row r="54" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="6" t="s">
         <v>462</v>
       </c>
@@ -8302,7 +8310,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="28.9" customHeight="1">
+    <row r="55" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="6" t="s">
         <v>467</v>
       </c>
@@ -8319,7 +8327,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="28.9" customHeight="1">
+    <row r="56" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="6" t="s">
         <v>471</v>
       </c>
@@ -8336,7 +8344,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="28.9" customHeight="1">
+    <row r="57" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="6" t="s">
         <v>476</v>
       </c>
@@ -8350,7 +8358,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="28.9" customHeight="1">
+    <row r="58" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="6" t="s">
         <v>480</v>
       </c>
@@ -8361,7 +8369,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="28.9" customHeight="1">
+    <row r="59" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="6" t="s">
         <v>483</v>
       </c>
@@ -8372,7 +8380,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="28.9" customHeight="1">
+    <row r="60" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="6" t="s">
         <v>486</v>
       </c>
@@ -8383,7 +8391,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="28.9" customHeight="1">
+    <row r="61" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="6" t="s">
         <v>489</v>
       </c>
@@ -8394,7 +8402,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="28.9" customHeight="1">
+    <row r="62" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="6" t="s">
         <v>492</v>
       </c>
@@ -8405,7 +8413,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="28.9" customHeight="1">
+    <row r="63" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="6" t="s">
         <v>495</v>
       </c>
@@ -8416,7 +8424,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="28.9" customHeight="1">
+    <row r="64" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="6" t="s">
         <v>498</v>
       </c>
@@ -8427,7 +8435,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="28.9" customHeight="1">
+    <row r="65" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="6" t="s">
         <v>501</v>
       </c>
@@ -8438,7 +8446,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="28.9" customHeight="1">
+    <row r="66" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="6" t="s">
         <v>504</v>
       </c>
@@ -8449,7 +8457,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="28.9" customHeight="1">
+    <row r="67" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="6" t="s">
         <v>507</v>
       </c>
@@ -8460,7 +8468,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="28.9" customHeight="1">
+    <row r="68" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="6" t="s">
         <v>510</v>
       </c>
@@ -8471,7 +8479,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="28.9" customHeight="1">
+    <row r="69" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="6" t="s">
         <v>513</v>
       </c>
@@ -8482,7 +8490,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="28.9" customHeight="1">
+    <row r="70" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="6" t="s">
         <v>516</v>
       </c>
@@ -8493,7 +8501,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="28.9" customHeight="1">
+    <row r="71" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="6" t="s">
         <v>519</v>
       </c>
@@ -8504,7 +8512,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="28.9" customHeight="1">
+    <row r="72" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="6" t="s">
         <v>522</v>
       </c>
@@ -8515,7 +8523,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="28.9" customHeight="1">
+    <row r="73" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="6" t="s">
         <v>525</v>
       </c>
@@ -8523,7 +8531,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="28.9" customHeight="1">
+    <row r="74" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="6" t="s">
         <v>527</v>
       </c>
@@ -8531,7 +8539,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="28.9" customHeight="1">
+    <row r="75" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="6" t="s">
         <v>529</v>
       </c>
@@ -8539,7 +8547,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="28.9" customHeight="1">
+    <row r="76" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="6" t="s">
         <v>531</v>
       </c>
@@ -8547,7 +8555,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="28.9" customHeight="1">
+    <row r="77" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="6" t="s">
         <v>532</v>
       </c>
@@ -8555,7 +8563,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="28.9" customHeight="1">
+    <row r="78" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="6" t="s">
         <v>534</v>
       </c>
@@ -8563,7 +8571,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="28.9" customHeight="1">
+    <row r="79" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="6" t="s">
         <v>536</v>
       </c>
@@ -8571,7 +8579,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="28.9" customHeight="1">
+    <row r="80" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="6" t="s">
         <v>538</v>
       </c>
@@ -8579,7 +8587,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="28.9" customHeight="1">
+    <row r="81" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="6" t="s">
         <v>540</v>
       </c>
@@ -8587,7 +8595,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="28.9" customHeight="1">
+    <row r="82" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="6" t="s">
         <v>542</v>
       </c>
@@ -8595,43 +8603,43 @@
         <v>543</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="28.9" customHeight="1">
+    <row r="83" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="6" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="28.9" customHeight="1">
+    <row r="84" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="6" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="28.9" customHeight="1">
+    <row r="85" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="6" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="28.9" customHeight="1">
+    <row r="86" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="6" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="28.9" customHeight="1">
+    <row r="87" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="6" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="28.9" customHeight="1">
+    <row r="88" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="6" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="28.9" customHeight="1">
+    <row r="89" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="6" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="7" customFormat="1"/>
-    <row r="91" spans="1:11" ht="28.9">
+    <row r="90" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="91" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B91" s="6" t="s">
         <v>551</v>
       </c>
@@ -8657,7 +8665,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="28.9">
+    <row r="92" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="C92" s="6" t="s">
         <v>551</v>
       </c>
@@ -8668,7 +8676,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="28.9">
+    <row r="93" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="C93" s="6" t="s">
         <v>560</v>
       </c>
@@ -8679,7 +8687,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="28.9">
+    <row r="94" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="C94" s="6" t="s">
         <v>563</v>
       </c>
@@ -8687,47 +8695,47 @@
         <v>564</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
       <c r="K95" s="6" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
       <c r="K96" s="6" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.4">
       <c r="K97" s="6" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.4">
       <c r="K98" s="6" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
       <c r="K99" s="6" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
       <c r="K100" s="6" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
       <c r="K101" s="6" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="102" spans="1:12" s="7" customFormat="1" ht="16.149999999999999" customHeight="1">
+    <row r="102" spans="1:12" s="7" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="L102" s="8" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="28.9">
+    <row r="103" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A103" s="6" t="s">
         <v>573</v>
       </c>
@@ -8741,7 +8749,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="28.9">
+    <row r="104" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A104" s="6" t="s">
         <v>577</v>
       </c>
@@ -8755,7 +8763,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="28.9">
+    <row r="105" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A105" s="6" t="s">
         <v>581</v>
       </c>
@@ -8770,6 +8778,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -8975,13 +8984,45 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D561AE8D-6CD4-4710-BFBD-9F54497E06A2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D561AE8D-6CD4-4710-BFBD-9F54497E06A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="587bccbb-e0a2-44d4-88fd-6c739c2daae6"/>
+    <ds:schemaRef ds:uri="42157898-e667-47ed-84b2-e4699df2704d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6BFF070-2D9D-4896-80EA-4F77F9E1D6EF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6BFF070-2D9D-4896-80EA-4F77F9E1D6EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="587bccbb-e0a2-44d4-88fd-6c739c2daae6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="42157898-e667-47ed-84b2-e4699df2704d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39118CA7-57BF-4D90-978F-F9202E07635D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39118CA7-57BF-4D90-978F-F9202E07635D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>